--- a/excel/assignments/Assignment7_Workbook.xlsx
+++ b/excel/assignments/Assignment7_Workbook.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="Menu Order" sheetId="1" r:id="rId1"/>
-    <sheet name="Catering Invoice" sheetId="2" r:id="rId2"/>
+    <sheet name="Bestellung" sheetId="1" r:id="rId1"/>
+    <sheet name="Catering Rechnung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
-    <t>Menu Item</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Tamales: Chicken Tinga</t>
   </si>
   <si>
@@ -49,9 +37,6 @@
     <t>Empanadas: Chipotle Shrimp</t>
   </si>
   <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
     <t>Empanadas:  Black Bean &amp; Plantain</t>
   </si>
   <si>
@@ -61,35 +46,32 @@
     <t>Arepas: Queso Blanco</t>
   </si>
   <si>
-    <t>Beverages: Horchata</t>
-  </si>
-  <si>
-    <t>Beverages: Lemonade</t>
-  </si>
-  <si>
-    <t>Beverages: Tamarindo</t>
-  </si>
-  <si>
-    <t>Requested Services</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Rental Equipment (Tables, Chairs, Linens)</t>
-  </si>
-  <si>
-    <t>Menu Items</t>
-  </si>
-  <si>
-    <t>Service Fee (18% of menu items ordered)</t>
-  </si>
-  <si>
-    <t>Paper Items (Plates, silverware, cups)</t>
+    <t>Steuer</t>
+  </si>
+  <si>
+    <t>Steuersatz</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Getränke: Horchata</t>
+  </si>
+  <si>
+    <t>Getränke: Lemonade</t>
+  </si>
+  <si>
+    <t>Getränke: Tamarindo</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                         </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -98,11 +80,30 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Catering Invoice</t>
+      <t>Catering
+ Rechnung</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Menu Order                   </t>
+    <t>Angefragte Dienste</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Papiergedeck (Platten, Besteck, Becher)</t>
+  </si>
+  <si>
+    <t>Leihartikel (Tische, Stühle, Tischdecken)</t>
+  </si>
+  <si>
+    <t>Servicegebühr (18% der bestellten Artikel)</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>Bestellung</t>
   </si>
 </sst>
 </file>
@@ -112,7 +113,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -356,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,22 +374,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -397,15 +388,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -442,6 +429,23 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -831,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,26 +849,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="17">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="12">
         <v>0.08</v>
       </c>
       <c r="F2" s="1"/>
@@ -874,178 +878,178 @@
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
         <v>2.99</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="29">
         <f>(B4*C4)*E2</f>
         <v>3.5880000000000001</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="30">
         <f>B4*C4+D4</f>
         <v>48.438000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
         <v>3.99</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="28">
         <v>2.29</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>20</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28">
         <v>2.29</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28">
         <v>2.89</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="28">
         <v>3.19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>40</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="28">
         <v>1.89</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>25</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="28">
         <v>1.89</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>35</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="28">
         <v>1.89</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="20">
+      <c r="A15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32">
         <f>E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v>48.438000000000002</v>
       </c>
@@ -1067,7 +1071,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,70 +1083,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B4" s="28">
+        <v>110.87</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="34">
+        <v>249.95</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8">
-        <v>110.87</v>
-      </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="22">
-        <v>249.95</v>
-      </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="B6" s="34">
         <f>B3*0.18</f>
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="35">
         <f>B3+B4+B5+B6</f>
         <v>360.82</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
